--- a/src/assets/测试账号和沙箱账号.xlsx
+++ b/src/assets/测试账号和沙箱账号.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itcast\AppData\Local\Temp\baiduyunguanjia\onlinedit\cache\043824426f67e1fe56ad65d2e20239f3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\Web\project\Vue3\xtx-pc\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA64F603-B5D1-4C71-B59A-E5ACC59C7F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23520" windowHeight="14760"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -79,14 +80,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>沙箱新账号 fukuvb7569@sandbox.com</t>
+    <t>沙箱新账号 scobys4865@sandbox.com</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -141,10 +142,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -423,22 +423,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="2" width="11.25" customWidth="1"/>
-    <col min="3" max="3" width="29.625" customWidth="1"/>
-    <col min="4" max="4" width="21.625" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -452,7 +452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -466,7 +466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -480,7 +480,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -494,7 +494,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -508,7 +508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -522,7 +522,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -536,7 +536,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -550,7 +550,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -564,7 +564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -578,7 +578,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -592,7 +592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -606,7 +606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -620,27 +620,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -649,8 +643,8 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3:D6" r:id="rId1" display="hm#qd@23!"/>
-    <hyperlink ref="D7:D14" r:id="rId2" display="hm#qd@23!"/>
+    <hyperlink ref="D3:D6" r:id="rId1" display="hm#qd@23!" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D7:D14" r:id="rId2" display="hm#qd@23!" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
